--- a/RawData/Part3.xlsx
+++ b/RawData/Part3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/53aa10671a66ae04/Data Science/Data Viz/HomeWork1/RawData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masoud\OneDrive\Data Science\Data Viz\HomeWork1\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E6200A9-89DE-4E04-A6A9-2BB515283E6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{8E6200A9-89DE-4E04-A6A9-2BB515283E6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{2F7C88BB-101A-47B9-B206-AEC456BB8291}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{CC6DE754-712E-44A3-AE4E-081CEC28A9A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Incident Category</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>Larency</t>
   </si>
 </sst>
 </file>
@@ -430,10 +427,14 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="53.81640625" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -520,7 +521,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>1515</v>
+        <v>5428</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -532,12 +533,8 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3913</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
